--- a/Übung 6/Aufgabe 1 - Umwandlung.xlsx
+++ b/Übung 6/Aufgabe 1 - Umwandlung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="72">
   <si>
     <t>Vorlesung</t>
   </si>
@@ -210,13 +210,301 @@
   </si>
   <si>
     <t>Vorlesung, Semester, MatNr -&gt;  Note</t>
+  </si>
+  <si>
+    <r>
+      <t>Prüfungsgeschehen(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vorlesung, Semester, MatNr,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Dozent, Fachbereich, Fakultät, StudentName, Note, bestanden, SWS)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Prüfungen(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vorlesung, Semester, MatNr,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Note, bestanden, SWS)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Modulverteilung(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vorlesung*, Semester*,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Dozent, Fachbereich, Fakultät)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Studenten(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MatNr*,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> StudentName)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vorlesungszeiten(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DBS*,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SWS)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Prüfungen(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vorlesung, Semester, MatNr,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Note)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Modulverteilung(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vorlesung*, Semester*,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Dozent)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bestehend(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note*,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bestanden)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fachbereiche(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dozent*,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Fachbereich)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fakultäten(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fachbereich*,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Fakultät)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,8 +574,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +601,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -342,13 +651,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1"/>
@@ -356,9 +666,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Überschrift 1" xfId="1" builtinId="16"/>
     <cellStyle name="Überschrift 3" xfId="2" builtinId="18"/>
@@ -639,18 +951,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R65"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="18" width="12.7109375" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -714,7 +1027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -746,7 +1059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -778,7 +1091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -810,7 +1123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -842,7 +1155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -874,7 +1187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -906,7 +1219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -938,7 +1251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -970,7 +1283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1002,8 +1315,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -1011,7 +1324,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
@@ -1019,7 +1332,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>40</v>
       </c>
@@ -1027,7 +1340,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
@@ -1035,7 +1348,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>44</v>
       </c>
@@ -1043,7 +1356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
@@ -1051,7 +1364,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -1059,154 +1372,58 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+    <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="24" spans="1:10" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R22" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="4">
-        <v>12345</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="4">
-        <v>4</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="4">
-        <v>12345</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R23" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="4">
-        <v>23456</v>
-      </c>
-      <c r="D24" s="4">
-        <v>3</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="4">
-        <v>4</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="4">
-        <v>23456</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R24" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
@@ -1214,13 +1431,13 @@
         <v>13</v>
       </c>
       <c r="C25" s="4">
-        <v>34567</v>
+        <v>12345</v>
       </c>
       <c r="D25" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" s="4">
         <v>4</v>
@@ -1228,40 +1445,19 @@
       <c r="H25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="4">
-        <v>34567</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q25" s="4" t="s">
+      <c r="I25" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R25" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="4">
-        <v>12345</v>
+        <v>23456</v>
       </c>
       <c r="D26" s="4">
         <v>3</v>
@@ -1270,84 +1466,42 @@
         <v>34</v>
       </c>
       <c r="F26" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="4">
-        <v>12345</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R26" s="4">
+      <c r="I26" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="4">
-        <v>98765</v>
+        <v>34567</v>
       </c>
       <c r="D27" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" s="4">
-        <v>98765</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R27" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I27" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -1355,195 +1509,96 @@
         <v>13</v>
       </c>
       <c r="C28" s="4">
-        <v>76543</v>
+        <v>12345</v>
       </c>
       <c r="D28" s="4">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" s="4">
         <v>6</v>
       </c>
-      <c r="H28" s="4" t="s">
+    </row>
+    <row r="29" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" s="4">
+      <c r="B29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="4">
+        <v>98765</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="4">
+        <v>6</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="4">
         <v>76543</v>
       </c>
-      <c r="O28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="R28" s="4">
+      <c r="D30" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="H30" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C31" s="4">
         <v>76543</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="F29" s="4">
-        <v>4</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="4">
-        <v>76543</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R29" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="4">
-        <v>86543</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="4">
-        <v>4</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N30" s="4">
-        <v>86543</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R30" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="4">
-        <v>23456</v>
-      </c>
-      <c r="D31" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="F31" s="4">
         <v>4</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N31" s="4">
-        <v>23456</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R31" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" s="4">
-        <v>35679</v>
+        <v>86543</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>33</v>
@@ -1554,643 +1609,749 @@
       <c r="F32" s="4">
         <v>4</v>
       </c>
-      <c r="H32" s="4" t="s">
+    </row>
+    <row r="33" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="B33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="4">
+        <v>23456</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32" s="4">
+      <c r="C34" s="4">
         <v>35679</v>
       </c>
-      <c r="O32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R32" s="4">
+      <c r="D34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="35" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R34" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    </row>
+    <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H36" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:18" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="1" t="s">
+    </row>
+    <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="D40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="4">
+        <v>12345</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="4">
-        <v>12345</v>
-      </c>
-      <c r="D42" s="4">
-        <v>2</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>13</v>
+      <c r="C42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="4">
+        <v>23456</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N42" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="4">
+        <v>15</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="4">
+        <v>34567</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="4">
+        <v>98765</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="4">
+        <v>76543</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G46" s="4">
+        <v>86543</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G47" s="4">
+        <v>35679</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="4">
+        <v>12345</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="4">
+        <v>12345</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="4">
         <v>23456</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D56" s="4">
         <v>3</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="4">
+        <v>23456</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="4" t="s">
+      <c r="B57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="4">
+        <v>34567</v>
+      </c>
+      <c r="D57" s="4">
+        <v>5</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J57" s="4">
+        <v>34567</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="4">
+        <v>12345</v>
+      </c>
+      <c r="D58" s="4">
+        <v>3</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="4">
+        <v>98765</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="4">
+        <v>98765</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" s="4">
+        <v>76543</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="4">
+        <v>76543</v>
+      </c>
+      <c r="D60" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="J60" s="4">
+        <v>86543</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="4">
+        <v>76543</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J61" s="4">
+        <v>35679</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="4">
+        <v>86543</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="4">
         <v>23456</v>
       </c>
-      <c r="K43" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M43" s="4" t="s">
+      <c r="D63" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="4">
+        <v>35679</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N43" s="4">
+      <c r="B70" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="4">
-        <v>34567</v>
-      </c>
-      <c r="D44" s="4">
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="4">
+        <v>6</v>
+      </c>
+      <c r="D71" s="4">
+        <v>2</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="4">
+        <v>4</v>
+      </c>
+      <c r="D72" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D73" s="4">
+        <v>3</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D74" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75" s="4">
         <v>5</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" s="4">
-        <v>34567</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N44" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="4">
-        <v>12345</v>
-      </c>
-      <c r="D45" s="4">
-        <v>3</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" s="4">
-        <v>12345</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N45" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="4">
-        <v>98765</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" s="4">
-        <v>98765</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N46" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="4">
-        <v>76543</v>
-      </c>
-      <c r="D47" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="4">
-        <v>76543</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N47" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="4">
-        <v>76543</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" s="4">
-        <v>76543</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N48" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="4">
-        <v>86543</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J49" s="4">
-        <v>86543</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N49" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="4">
-        <v>23456</v>
-      </c>
-      <c r="D50" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="4">
-        <v>23456</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N50" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="4">
-        <v>35679</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J51" s="4">
-        <v>35679</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N51" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="E75" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53" s="5" t="s">
+      <c r="H75" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J75" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J53" s="5" t="s">
+      <c r="K75" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G76" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D77" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K53" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M53" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>1</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <v>2</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <v>3</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>5</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" s="3" t="s">
+      <c r="E77" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="65" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D78" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A57:B66">
     <sortCondition ref="A57"/>
